--- a/Test_files/Data/Rec_Tables/ek.xlsx
+++ b/Test_files/Data/Rec_Tables/ek.xlsx
@@ -39,28 +39,28 @@
     <t>q_p_ek</t>
   </si>
   <si>
+    <t>dp_nom_ek</t>
+  </si>
+  <si>
+    <t>Elektrokessel_ID</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>eta_ek</t>
+  </si>
+  <si>
     <t>c_th_ek</t>
-  </si>
-  <si>
-    <t>dp_nom_ek</t>
-  </si>
-  <si>
-    <t>Elektrokessel_ID</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>eta_ek</t>
   </si>
 </sst>
 </file>
@@ -897,7 +897,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +907,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="5"/>
     </row>
@@ -924,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>5000000</v>
@@ -953,18 +953,18 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
